--- a/Marketing.Mvc/DadosApp/Relatorio/Relatório de Envio de Extratos de Incidência_outubro2025.xlsx
+++ b/Marketing.Mvc/DadosApp/Relatorio/Relatório de Envio de Extratos de Incidência_outubro2025.xlsx
@@ -94,7 +94,7 @@
     <x:t>Os CNPS´s marcados com esta cor não constam no envio do mês anterior.</x:t>
   </x:si>
   <x:si>
-    <x:t>17/11/2025</x:t>
+    <x:t>18/11/2025</x:t>
   </x:si>
   <x:si>
     <x:t>DOMINOS</x:t>
@@ -115,13 +115,13 @@
     <x:t/>
   </x:si>
   <x:si>
+    <x:t>Disparado</x:t>
+  </x:si>
+  <x:si>
     <x:t>109 NORTE</x:t>
   </x:si>
   <x:si>
     <x:t>20175900000187</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Disparado</x:t>
   </x:si>
   <x:si>
     <x:t>ARCO VERDE</x:t>
@@ -1027,7 +1027,7 @@
   <x:dimension ref="A1:AA892"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <x:selection activeCell="B12" sqref="B12 B15"/>
+      <x:selection activeCell="B12" sqref="B12 B21"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="12.710625" defaultRowHeight="15" customHeight="1"/>
@@ -1174,16 +1174,16 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C8" s="35" t="s">
-        <x:v>30</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D8" s="36" t="s">
-        <x:v>31</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E8" s="37" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F8" s="37" t="s">
-        <x:v>32</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G8" s="38" t="s">
         <x:v>29</x:v>
@@ -1217,16 +1217,16 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C9" s="35" t="s">
-        <x:v>33</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D9" s="36" t="s">
-        <x:v>34</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E9" s="37" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F9" s="37" t="s">
-        <x:v>32</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G9" s="38" t="s">
         <x:v>29</x:v>
@@ -1253,13 +1253,27 @@
       <x:c r="AA9" s="39"/>
     </x:row>
     <x:row r="10" spans="1:27" ht="15" customHeight="1">
-      <x:c r="A10" s="33"/>
-      <x:c r="B10" s="34"/>
-      <x:c r="C10" s="35"/>
-      <x:c r="D10" s="36"/>
-      <x:c r="E10" s="37"/>
-      <x:c r="F10" s="37"/>
-      <x:c r="G10" s="38"/>
+      <x:c r="A10" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B10" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C10" s="35" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D10" s="36" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E10" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F10" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G10" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
       <x:c r="H10" s="39"/>
       <x:c r="I10" s="39"/>
       <x:c r="J10" s="39"/>
@@ -1281,14 +1295,28 @@
       <x:c r="Z10" s="39"/>
       <x:c r="AA10" s="39"/>
     </x:row>
-    <x:row r="11" spans="1:27">
-      <x:c r="A11" s="33"/>
-      <x:c r="B11" s="34"/>
-      <x:c r="C11" s="35"/>
-      <x:c r="D11" s="36"/>
-      <x:c r="E11" s="37"/>
-      <x:c r="F11" s="37"/>
-      <x:c r="G11" s="38"/>
+    <x:row r="11" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A11" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B11" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C11" s="35" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D11" s="36" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E11" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F11" s="37" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G11" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
       <x:c r="H11" s="39"/>
       <x:c r="I11" s="39"/>
       <x:c r="J11" s="39"/>
@@ -1310,126 +1338,332 @@
       <x:c r="Z11" s="39"/>
       <x:c r="AA11" s="39"/>
     </x:row>
-    <x:row r="12" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="A12" s="17"/>
-      <x:c r="B12" s="18"/>
-      <x:c r="C12" s="19"/>
-      <x:c r="D12" s="20"/>
-      <x:c r="E12" s="19"/>
-      <x:c r="F12" s="19"/>
-      <x:c r="G12" s="21"/>
-    </x:row>
-    <x:row r="13" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="A13" s="8"/>
-      <x:c r="B13" s="8"/>
-      <x:c r="C13" s="8"/>
-      <x:c r="D13" s="9"/>
-      <x:c r="E13" s="8"/>
-      <x:c r="F13" s="8"/>
-      <x:c r="G13" s="22"/>
-    </x:row>
-    <x:row r="14" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="A14" s="39"/>
-      <x:c r="B14" s="39"/>
-      <x:c r="C14" s="39"/>
-      <x:c r="D14" s="40"/>
-      <x:c r="E14" s="39"/>
-      <x:c r="F14" s="39"/>
-      <x:c r="G14" s="23"/>
-    </x:row>
-    <x:row r="15" spans="1:27" ht="18.75" customHeight="1">
-      <x:c r="A15" s="24" t="s">
+    <x:row r="12" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A12" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B12" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C12" s="35" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D12" s="36" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E12" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F12" s="37" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G12" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H12" s="39"/>
+      <x:c r="I12" s="39"/>
+      <x:c r="J12" s="39"/>
+      <x:c r="K12" s="39"/>
+      <x:c r="L12" s="39"/>
+      <x:c r="M12" s="39"/>
+      <x:c r="N12" s="39"/>
+      <x:c r="O12" s="39"/>
+      <x:c r="P12" s="39"/>
+      <x:c r="Q12" s="39"/>
+      <x:c r="R12" s="39"/>
+      <x:c r="S12" s="39"/>
+      <x:c r="T12" s="39"/>
+      <x:c r="U12" s="39"/>
+      <x:c r="V12" s="39"/>
+      <x:c r="W12" s="39"/>
+      <x:c r="X12" s="39"/>
+      <x:c r="Y12" s="39"/>
+      <x:c r="Z12" s="39"/>
+      <x:c r="AA12" s="39"/>
+    </x:row>
+    <x:row r="13" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A13" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B13" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C13" s="35" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D13" s="36" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E13" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F13" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G13" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H13" s="39"/>
+      <x:c r="I13" s="39"/>
+      <x:c r="J13" s="39"/>
+      <x:c r="K13" s="39"/>
+      <x:c r="L13" s="39"/>
+      <x:c r="M13" s="39"/>
+      <x:c r="N13" s="39"/>
+      <x:c r="O13" s="39"/>
+      <x:c r="P13" s="39"/>
+      <x:c r="Q13" s="39"/>
+      <x:c r="R13" s="39"/>
+      <x:c r="S13" s="39"/>
+      <x:c r="T13" s="39"/>
+      <x:c r="U13" s="39"/>
+      <x:c r="V13" s="39"/>
+      <x:c r="W13" s="39"/>
+      <x:c r="X13" s="39"/>
+      <x:c r="Y13" s="39"/>
+      <x:c r="Z13" s="39"/>
+      <x:c r="AA13" s="39"/>
+    </x:row>
+    <x:row r="14" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A14" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B14" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C14" s="35" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D14" s="36" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E14" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F14" s="37" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G14" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H14" s="39"/>
+      <x:c r="I14" s="39"/>
+      <x:c r="J14" s="39"/>
+      <x:c r="K14" s="39"/>
+      <x:c r="L14" s="39"/>
+      <x:c r="M14" s="39"/>
+      <x:c r="N14" s="39"/>
+      <x:c r="O14" s="39"/>
+      <x:c r="P14" s="39"/>
+      <x:c r="Q14" s="39"/>
+      <x:c r="R14" s="39"/>
+      <x:c r="S14" s="39"/>
+      <x:c r="T14" s="39"/>
+      <x:c r="U14" s="39"/>
+      <x:c r="V14" s="39"/>
+      <x:c r="W14" s="39"/>
+      <x:c r="X14" s="39"/>
+      <x:c r="Y14" s="39"/>
+      <x:c r="Z14" s="39"/>
+      <x:c r="AA14" s="39"/>
+    </x:row>
+    <x:row r="15" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A15" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B15" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C15" s="35" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D15" s="36" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E15" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F15" s="37" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G15" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H15" s="39"/>
+      <x:c r="I15" s="39"/>
+      <x:c r="J15" s="39"/>
+      <x:c r="K15" s="39"/>
+      <x:c r="L15" s="39"/>
+      <x:c r="M15" s="39"/>
+      <x:c r="N15" s="39"/>
+      <x:c r="O15" s="39"/>
+      <x:c r="P15" s="39"/>
+      <x:c r="Q15" s="39"/>
+      <x:c r="R15" s="39"/>
+      <x:c r="S15" s="39"/>
+      <x:c r="T15" s="39"/>
+      <x:c r="U15" s="39"/>
+      <x:c r="V15" s="39"/>
+      <x:c r="W15" s="39"/>
+      <x:c r="X15" s="39"/>
+      <x:c r="Y15" s="39"/>
+      <x:c r="Z15" s="39"/>
+      <x:c r="AA15" s="39"/>
+    </x:row>
+    <x:row r="16" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A16" s="33"/>
+      <x:c r="B16" s="34"/>
+      <x:c r="C16" s="35"/>
+      <x:c r="D16" s="36"/>
+      <x:c r="E16" s="37"/>
+      <x:c r="F16" s="37"/>
+      <x:c r="G16" s="38"/>
+      <x:c r="H16" s="39"/>
+      <x:c r="I16" s="39"/>
+      <x:c r="J16" s="39"/>
+      <x:c r="K16" s="39"/>
+      <x:c r="L16" s="39"/>
+      <x:c r="M16" s="39"/>
+      <x:c r="N16" s="39"/>
+      <x:c r="O16" s="39"/>
+      <x:c r="P16" s="39"/>
+      <x:c r="Q16" s="39"/>
+      <x:c r="R16" s="39"/>
+      <x:c r="S16" s="39"/>
+      <x:c r="T16" s="39"/>
+      <x:c r="U16" s="39"/>
+      <x:c r="V16" s="39"/>
+      <x:c r="W16" s="39"/>
+      <x:c r="X16" s="39"/>
+      <x:c r="Y16" s="39"/>
+      <x:c r="Z16" s="39"/>
+      <x:c r="AA16" s="39"/>
+    </x:row>
+    <x:row r="17" spans="1:27">
+      <x:c r="A17" s="33"/>
+      <x:c r="B17" s="34"/>
+      <x:c r="C17" s="35"/>
+      <x:c r="D17" s="36"/>
+      <x:c r="E17" s="37"/>
+      <x:c r="F17" s="37"/>
+      <x:c r="G17" s="38"/>
+      <x:c r="H17" s="39"/>
+      <x:c r="I17" s="39"/>
+      <x:c r="J17" s="39"/>
+      <x:c r="K17" s="39"/>
+      <x:c r="L17" s="39"/>
+      <x:c r="M17" s="39"/>
+      <x:c r="N17" s="39"/>
+      <x:c r="O17" s="39"/>
+      <x:c r="P17" s="39"/>
+      <x:c r="Q17" s="39"/>
+      <x:c r="R17" s="39"/>
+      <x:c r="S17" s="39"/>
+      <x:c r="T17" s="39"/>
+      <x:c r="U17" s="39"/>
+      <x:c r="V17" s="39"/>
+      <x:c r="W17" s="39"/>
+      <x:c r="X17" s="39"/>
+      <x:c r="Y17" s="39"/>
+      <x:c r="Z17" s="39"/>
+      <x:c r="AA17" s="39"/>
+    </x:row>
+    <x:row r="18" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="A18" s="17"/>
+      <x:c r="B18" s="18"/>
+      <x:c r="C18" s="19"/>
+      <x:c r="D18" s="20"/>
+      <x:c r="E18" s="19"/>
+      <x:c r="F18" s="19"/>
+      <x:c r="G18" s="21"/>
+    </x:row>
+    <x:row r="19" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="A19" s="8"/>
+      <x:c r="B19" s="8"/>
+      <x:c r="C19" s="8"/>
+      <x:c r="D19" s="9"/>
+      <x:c r="E19" s="8"/>
+      <x:c r="F19" s="8"/>
+      <x:c r="G19" s="22"/>
+    </x:row>
+    <x:row r="20" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="A20" s="39"/>
+      <x:c r="B20" s="39"/>
+      <x:c r="C20" s="39"/>
+      <x:c r="D20" s="40"/>
+      <x:c r="E20" s="39"/>
+      <x:c r="F20" s="39"/>
+      <x:c r="G20" s="23"/>
+    </x:row>
+    <x:row r="21" spans="1:27" ht="18.75" customHeight="1">
+      <x:c r="A21" s="24" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B15" s="24">
+      <x:c r="B21" s="24">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C15" s="25" t="s">
+      <x:c r="C21" s="25" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D15" s="26"/>
-      <x:c r="E15" s="27"/>
-      <x:c r="F15" s="56"/>
-      <x:c r="G15" s="23"/>
-    </x:row>
-    <x:row r="16" spans="1:27" ht="18.75" customHeight="1">
-      <x:c r="A16" s="24" t="s">
+      <x:c r="D21" s="26"/>
+      <x:c r="E21" s="27"/>
+      <x:c r="F21" s="56"/>
+      <x:c r="G21" s="23"/>
+    </x:row>
+    <x:row r="22" spans="1:27" ht="18.75" customHeight="1">
+      <x:c r="A22" s="24" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B16" s="24">
+      <x:c r="B22" s="24">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C16" s="25" t="s">
+      <x:c r="C22" s="25" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="D16" s="28"/>
-      <x:c r="E16" s="27"/>
-      <x:c r="F16" s="56"/>
-      <x:c r="G16" s="23"/>
-    </x:row>
-    <x:row r="17" spans="1:27" ht="18.75" customHeight="1">
-      <x:c r="A17" s="24" t="s">
+      <x:c r="D22" s="28"/>
+      <x:c r="E22" s="27"/>
+      <x:c r="F22" s="56"/>
+      <x:c r="G22" s="23"/>
+    </x:row>
+    <x:row r="23" spans="1:27" ht="18.75" customHeight="1">
+      <x:c r="A23" s="24" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B17" s="24">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C17" s="29" t="s">
+      <x:c r="B23" s="24">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C23" s="29" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="D17" s="30"/>
-      <x:c r="E17" s="27"/>
-      <x:c r="F17" s="56"/>
-      <x:c r="G17" s="23"/>
-    </x:row>
-    <x:row r="18" spans="1:27" ht="112.15" customHeight="1">
-      <x:c r="A18" s="24" t="s">
+      <x:c r="D23" s="30"/>
+      <x:c r="E23" s="27"/>
+      <x:c r="F23" s="56"/>
+      <x:c r="G23" s="23"/>
+    </x:row>
+    <x:row r="24" spans="1:27" ht="112.15" customHeight="1">
+      <x:c r="A24" s="24" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B18" s="24">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C18" s="29" t="s">
+      <x:c r="B24" s="24">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C24" s="29" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D18" s="30"/>
-      <x:c r="E18" s="27"/>
-      <x:c r="F18" s="56"/>
-      <x:c r="G18" s="23"/>
-    </x:row>
-    <x:row r="19" spans="1:27" ht="37.9" customHeight="1">
-      <x:c r="A19" s="57"/>
-      <x:c r="B19" s="24"/>
-      <x:c r="C19" s="29" t="s">
+      <x:c r="D24" s="30"/>
+      <x:c r="E24" s="27"/>
+      <x:c r="F24" s="56"/>
+      <x:c r="G24" s="23"/>
+    </x:row>
+    <x:row r="25" spans="1:27" ht="37.9" customHeight="1">
+      <x:c r="A25" s="57"/>
+      <x:c r="B25" s="24"/>
+      <x:c r="C25" s="29" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D19" s="30"/>
-      <x:c r="E19" s="27"/>
-      <x:c r="F19" s="56"/>
-      <x:c r="G19" s="23"/>
-    </x:row>
-    <x:row r="20" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D20" s="41"/>
-      <x:c r="G20" s="23"/>
-    </x:row>
-    <x:row r="21" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D21" s="41"/>
-      <x:c r="G21" s="23"/>
-    </x:row>
-    <x:row r="22" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D22" s="41"/>
-      <x:c r="G22" s="23"/>
-    </x:row>
-    <x:row r="23" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D23" s="41"/>
-      <x:c r="G23" s="23"/>
-    </x:row>
-    <x:row r="24" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D24" s="41"/>
-      <x:c r="G24" s="23"/>
-    </x:row>
-    <x:row r="25" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D25" s="41"/>
+      <x:c r="D25" s="30"/>
+      <x:c r="E25" s="27"/>
+      <x:c r="F25" s="56"/>
       <x:c r="G25" s="23"/>
     </x:row>
     <x:row r="26" spans="1:27" ht="15.75" customHeight="1">
@@ -2210,21 +2444,27 @@
     </x:row>
     <x:row r="220" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D220" s="41"/>
+      <x:c r="G220" s="23"/>
     </x:row>
     <x:row r="221" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D221" s="41"/>
+      <x:c r="G221" s="23"/>
     </x:row>
     <x:row r="222" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D222" s="41"/>
+      <x:c r="G222" s="23"/>
     </x:row>
     <x:row r="223" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D223" s="41"/>
+      <x:c r="G223" s="23"/>
     </x:row>
     <x:row r="224" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D224" s="41"/>
+      <x:c r="G224" s="23"/>
     </x:row>
     <x:row r="225" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D225" s="41"/>
+      <x:c r="G225" s="23"/>
     </x:row>
     <x:row r="226" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D226" s="41"/>
@@ -4235,6 +4475,24 @@
     </x:row>
     <x:row r="895" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D895" s="41"/>
+    </x:row>
+    <x:row r="896" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D896" s="41"/>
+    </x:row>
+    <x:row r="897" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D897" s="41"/>
+    </x:row>
+    <x:row r="898" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D898" s="41"/>
+    </x:row>
+    <x:row r="899" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D899" s="41"/>
+    </x:row>
+    <x:row r="900" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D900" s="41"/>
+    </x:row>
+    <x:row r="901" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D901" s="41"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="5">
@@ -4244,7 +4502,7 @@
     <x:mergeCell ref="B3:F3"/>
     <x:mergeCell ref="B4:F4"/>
   </x:mergeCells>
-  <x:conditionalFormatting sqref="D7:D11">
+  <x:conditionalFormatting sqref="D7:D17">
     <x:cfRule type="expression" dxfId="0" priority="1" operator="equal">
       <x:formula>H7=1</x:formula>
     </x:cfRule>

--- a/Marketing.Mvc/DadosApp/Relatorio/Relatório de Envio de Extratos de Incidência_outubro2025.xlsx
+++ b/Marketing.Mvc/DadosApp/Relatorio/Relatório de Envio de Extratos de Incidência_outubro2025.xlsx
@@ -94,7 +94,7 @@
     <x:t>Os CNPS´s marcados com esta cor não constam no envio do mês anterior.</x:t>
   </x:si>
   <x:si>
-    <x:t>18/11/2025</x:t>
+    <x:t>19/11/2025</x:t>
   </x:si>
   <x:si>
     <x:t>DOMINOS</x:t>
@@ -109,19 +109,19 @@
     <x:t>5511977515914</x:t>
   </x:si>
   <x:si>
-    <x:t>ClicouLink</x:t>
+    <x:t>CLICKLINK</x:t>
   </x:si>
   <x:si>
     <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>Disparado</x:t>
   </x:si>
   <x:si>
     <x:t>109 NORTE</x:t>
   </x:si>
   <x:si>
     <x:t>20175900000187</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SENTTOMETA</x:t>
   </x:si>
   <x:si>
     <x:t>ARCO VERDE</x:t>
@@ -1027,7 +1027,7 @@
   <x:dimension ref="A1:AA892"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <x:selection activeCell="B12" sqref="B12 B21"/>
+      <x:selection activeCell="B12" sqref="B12 B15"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="12.710625" defaultRowHeight="15" customHeight="1"/>
@@ -1174,16 +1174,16 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C8" s="35" t="s">
-        <x:v>25</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D8" s="36" t="s">
-        <x:v>26</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E8" s="37" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F8" s="37" t="s">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G8" s="38" t="s">
         <x:v>29</x:v>
@@ -1217,16 +1217,16 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C9" s="35" t="s">
-        <x:v>25</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D9" s="36" t="s">
-        <x:v>26</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E9" s="37" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F9" s="37" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G9" s="38" t="s">
         <x:v>29</x:v>
@@ -1253,27 +1253,13 @@
       <x:c r="AA9" s="39"/>
     </x:row>
     <x:row r="10" spans="1:27" ht="15" customHeight="1">
-      <x:c r="A10" s="33" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B10" s="34" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C10" s="35" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D10" s="36" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E10" s="37" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F10" s="37" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="G10" s="38" t="s">
-        <x:v>29</x:v>
-      </x:c>
+      <x:c r="A10" s="33"/>
+      <x:c r="B10" s="34"/>
+      <x:c r="C10" s="35"/>
+      <x:c r="D10" s="36"/>
+      <x:c r="E10" s="37"/>
+      <x:c r="F10" s="37"/>
+      <x:c r="G10" s="38"/>
       <x:c r="H10" s="39"/>
       <x:c r="I10" s="39"/>
       <x:c r="J10" s="39"/>
@@ -1295,28 +1281,14 @@
       <x:c r="Z10" s="39"/>
       <x:c r="AA10" s="39"/>
     </x:row>
-    <x:row r="11" spans="1:27" ht="15" customHeight="1">
-      <x:c r="A11" s="33" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B11" s="34" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C11" s="35" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D11" s="36" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E11" s="37" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F11" s="37" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G11" s="38" t="s">
-        <x:v>29</x:v>
-      </x:c>
+    <x:row r="11" spans="1:27">
+      <x:c r="A11" s="33"/>
+      <x:c r="B11" s="34"/>
+      <x:c r="C11" s="35"/>
+      <x:c r="D11" s="36"/>
+      <x:c r="E11" s="37"/>
+      <x:c r="F11" s="37"/>
+      <x:c r="G11" s="38"/>
       <x:c r="H11" s="39"/>
       <x:c r="I11" s="39"/>
       <x:c r="J11" s="39"/>
@@ -1338,332 +1310,126 @@
       <x:c r="Z11" s="39"/>
       <x:c r="AA11" s="39"/>
     </x:row>
-    <x:row r="12" spans="1:27" ht="15" customHeight="1">
-      <x:c r="A12" s="33" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B12" s="34" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C12" s="35" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D12" s="36" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E12" s="37" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F12" s="37" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G12" s="38" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="H12" s="39"/>
-      <x:c r="I12" s="39"/>
-      <x:c r="J12" s="39"/>
-      <x:c r="K12" s="39"/>
-      <x:c r="L12" s="39"/>
-      <x:c r="M12" s="39"/>
-      <x:c r="N12" s="39"/>
-      <x:c r="O12" s="39"/>
-      <x:c r="P12" s="39"/>
-      <x:c r="Q12" s="39"/>
-      <x:c r="R12" s="39"/>
-      <x:c r="S12" s="39"/>
-      <x:c r="T12" s="39"/>
-      <x:c r="U12" s="39"/>
-      <x:c r="V12" s="39"/>
-      <x:c r="W12" s="39"/>
-      <x:c r="X12" s="39"/>
-      <x:c r="Y12" s="39"/>
-      <x:c r="Z12" s="39"/>
-      <x:c r="AA12" s="39"/>
-    </x:row>
-    <x:row r="13" spans="1:27" ht="15" customHeight="1">
-      <x:c r="A13" s="33" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B13" s="34" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C13" s="35" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="D13" s="36" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="E13" s="37" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F13" s="37" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="G13" s="38" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="H13" s="39"/>
-      <x:c r="I13" s="39"/>
-      <x:c r="J13" s="39"/>
-      <x:c r="K13" s="39"/>
-      <x:c r="L13" s="39"/>
-      <x:c r="M13" s="39"/>
-      <x:c r="N13" s="39"/>
-      <x:c r="O13" s="39"/>
-      <x:c r="P13" s="39"/>
-      <x:c r="Q13" s="39"/>
-      <x:c r="R13" s="39"/>
-      <x:c r="S13" s="39"/>
-      <x:c r="T13" s="39"/>
-      <x:c r="U13" s="39"/>
-      <x:c r="V13" s="39"/>
-      <x:c r="W13" s="39"/>
-      <x:c r="X13" s="39"/>
-      <x:c r="Y13" s="39"/>
-      <x:c r="Z13" s="39"/>
-      <x:c r="AA13" s="39"/>
-    </x:row>
-    <x:row r="14" spans="1:27" ht="15" customHeight="1">
-      <x:c r="A14" s="33" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B14" s="34" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C14" s="35" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="D14" s="36" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="E14" s="37" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F14" s="37" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G14" s="38" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="H14" s="39"/>
-      <x:c r="I14" s="39"/>
-      <x:c r="J14" s="39"/>
-      <x:c r="K14" s="39"/>
-      <x:c r="L14" s="39"/>
-      <x:c r="M14" s="39"/>
-      <x:c r="N14" s="39"/>
-      <x:c r="O14" s="39"/>
-      <x:c r="P14" s="39"/>
-      <x:c r="Q14" s="39"/>
-      <x:c r="R14" s="39"/>
-      <x:c r="S14" s="39"/>
-      <x:c r="T14" s="39"/>
-      <x:c r="U14" s="39"/>
-      <x:c r="V14" s="39"/>
-      <x:c r="W14" s="39"/>
-      <x:c r="X14" s="39"/>
-      <x:c r="Y14" s="39"/>
-      <x:c r="Z14" s="39"/>
-      <x:c r="AA14" s="39"/>
-    </x:row>
-    <x:row r="15" spans="1:27" ht="15" customHeight="1">
-      <x:c r="A15" s="33" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B15" s="34" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C15" s="35" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="D15" s="36" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="E15" s="37" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F15" s="37" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G15" s="38" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="H15" s="39"/>
-      <x:c r="I15" s="39"/>
-      <x:c r="J15" s="39"/>
-      <x:c r="K15" s="39"/>
-      <x:c r="L15" s="39"/>
-      <x:c r="M15" s="39"/>
-      <x:c r="N15" s="39"/>
-      <x:c r="O15" s="39"/>
-      <x:c r="P15" s="39"/>
-      <x:c r="Q15" s="39"/>
-      <x:c r="R15" s="39"/>
-      <x:c r="S15" s="39"/>
-      <x:c r="T15" s="39"/>
-      <x:c r="U15" s="39"/>
-      <x:c r="V15" s="39"/>
-      <x:c r="W15" s="39"/>
-      <x:c r="X15" s="39"/>
-      <x:c r="Y15" s="39"/>
-      <x:c r="Z15" s="39"/>
-      <x:c r="AA15" s="39"/>
-    </x:row>
-    <x:row r="16" spans="1:27" ht="15" customHeight="1">
-      <x:c r="A16" s="33"/>
-      <x:c r="B16" s="34"/>
-      <x:c r="C16" s="35"/>
-      <x:c r="D16" s="36"/>
-      <x:c r="E16" s="37"/>
-      <x:c r="F16" s="37"/>
-      <x:c r="G16" s="38"/>
-      <x:c r="H16" s="39"/>
-      <x:c r="I16" s="39"/>
-      <x:c r="J16" s="39"/>
-      <x:c r="K16" s="39"/>
-      <x:c r="L16" s="39"/>
-      <x:c r="M16" s="39"/>
-      <x:c r="N16" s="39"/>
-      <x:c r="O16" s="39"/>
-      <x:c r="P16" s="39"/>
-      <x:c r="Q16" s="39"/>
-      <x:c r="R16" s="39"/>
-      <x:c r="S16" s="39"/>
-      <x:c r="T16" s="39"/>
-      <x:c r="U16" s="39"/>
-      <x:c r="V16" s="39"/>
-      <x:c r="W16" s="39"/>
-      <x:c r="X16" s="39"/>
-      <x:c r="Y16" s="39"/>
-      <x:c r="Z16" s="39"/>
-      <x:c r="AA16" s="39"/>
-    </x:row>
-    <x:row r="17" spans="1:27">
-      <x:c r="A17" s="33"/>
-      <x:c r="B17" s="34"/>
-      <x:c r="C17" s="35"/>
-      <x:c r="D17" s="36"/>
-      <x:c r="E17" s="37"/>
-      <x:c r="F17" s="37"/>
-      <x:c r="G17" s="38"/>
-      <x:c r="H17" s="39"/>
-      <x:c r="I17" s="39"/>
-      <x:c r="J17" s="39"/>
-      <x:c r="K17" s="39"/>
-      <x:c r="L17" s="39"/>
-      <x:c r="M17" s="39"/>
-      <x:c r="N17" s="39"/>
-      <x:c r="O17" s="39"/>
-      <x:c r="P17" s="39"/>
-      <x:c r="Q17" s="39"/>
-      <x:c r="R17" s="39"/>
-      <x:c r="S17" s="39"/>
-      <x:c r="T17" s="39"/>
-      <x:c r="U17" s="39"/>
-      <x:c r="V17" s="39"/>
-      <x:c r="W17" s="39"/>
-      <x:c r="X17" s="39"/>
-      <x:c r="Y17" s="39"/>
-      <x:c r="Z17" s="39"/>
-      <x:c r="AA17" s="39"/>
-    </x:row>
-    <x:row r="18" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="A18" s="17"/>
-      <x:c r="B18" s="18"/>
-      <x:c r="C18" s="19"/>
-      <x:c r="D18" s="20"/>
-      <x:c r="E18" s="19"/>
-      <x:c r="F18" s="19"/>
-      <x:c r="G18" s="21"/>
-    </x:row>
-    <x:row r="19" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="A19" s="8"/>
-      <x:c r="B19" s="8"/>
-      <x:c r="C19" s="8"/>
-      <x:c r="D19" s="9"/>
-      <x:c r="E19" s="8"/>
-      <x:c r="F19" s="8"/>
-      <x:c r="G19" s="22"/>
+    <x:row r="12" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="A12" s="17"/>
+      <x:c r="B12" s="18"/>
+      <x:c r="C12" s="19"/>
+      <x:c r="D12" s="20"/>
+      <x:c r="E12" s="19"/>
+      <x:c r="F12" s="19"/>
+      <x:c r="G12" s="21"/>
+    </x:row>
+    <x:row r="13" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="A13" s="8"/>
+      <x:c r="B13" s="8"/>
+      <x:c r="C13" s="8"/>
+      <x:c r="D13" s="9"/>
+      <x:c r="E13" s="8"/>
+      <x:c r="F13" s="8"/>
+      <x:c r="G13" s="22"/>
+    </x:row>
+    <x:row r="14" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="A14" s="39"/>
+      <x:c r="B14" s="39"/>
+      <x:c r="C14" s="39"/>
+      <x:c r="D14" s="40"/>
+      <x:c r="E14" s="39"/>
+      <x:c r="F14" s="39"/>
+      <x:c r="G14" s="23"/>
+    </x:row>
+    <x:row r="15" spans="1:27" ht="18.75" customHeight="1">
+      <x:c r="A15" s="24" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B15" s="24">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C15" s="25" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D15" s="26"/>
+      <x:c r="E15" s="27"/>
+      <x:c r="F15" s="56"/>
+      <x:c r="G15" s="23"/>
+    </x:row>
+    <x:row r="16" spans="1:27" ht="18.75" customHeight="1">
+      <x:c r="A16" s="24" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B16" s="24">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C16" s="25" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D16" s="28"/>
+      <x:c r="E16" s="27"/>
+      <x:c r="F16" s="56"/>
+      <x:c r="G16" s="23"/>
+    </x:row>
+    <x:row r="17" spans="1:27" ht="18.75" customHeight="1">
+      <x:c r="A17" s="24" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B17" s="24">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C17" s="29" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D17" s="30"/>
+      <x:c r="E17" s="27"/>
+      <x:c r="F17" s="56"/>
+      <x:c r="G17" s="23"/>
+    </x:row>
+    <x:row r="18" spans="1:27" ht="112.15" customHeight="1">
+      <x:c r="A18" s="24" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B18" s="24">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C18" s="29" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D18" s="30"/>
+      <x:c r="E18" s="27"/>
+      <x:c r="F18" s="56"/>
+      <x:c r="G18" s="23"/>
+    </x:row>
+    <x:row r="19" spans="1:27" ht="37.9" customHeight="1">
+      <x:c r="A19" s="57"/>
+      <x:c r="B19" s="24"/>
+      <x:c r="C19" s="29" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D19" s="30"/>
+      <x:c r="E19" s="27"/>
+      <x:c r="F19" s="56"/>
+      <x:c r="G19" s="23"/>
     </x:row>
     <x:row r="20" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="A20" s="39"/>
-      <x:c r="B20" s="39"/>
-      <x:c r="C20" s="39"/>
-      <x:c r="D20" s="40"/>
-      <x:c r="E20" s="39"/>
-      <x:c r="F20" s="39"/>
+      <x:c r="D20" s="41"/>
       <x:c r="G20" s="23"/>
     </x:row>
-    <x:row r="21" spans="1:27" ht="18.75" customHeight="1">
-      <x:c r="A21" s="24" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B21" s="24">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C21" s="25" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D21" s="26"/>
-      <x:c r="E21" s="27"/>
-      <x:c r="F21" s="56"/>
+    <x:row r="21" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D21" s="41"/>
       <x:c r="G21" s="23"/>
     </x:row>
-    <x:row r="22" spans="1:27" ht="18.75" customHeight="1">
-      <x:c r="A22" s="24" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B22" s="24">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C22" s="25" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D22" s="28"/>
-      <x:c r="E22" s="27"/>
-      <x:c r="F22" s="56"/>
+    <x:row r="22" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D22" s="41"/>
       <x:c r="G22" s="23"/>
     </x:row>
-    <x:row r="23" spans="1:27" ht="18.75" customHeight="1">
-      <x:c r="A23" s="24" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B23" s="24">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C23" s="29" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D23" s="30"/>
-      <x:c r="E23" s="27"/>
-      <x:c r="F23" s="56"/>
+    <x:row r="23" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D23" s="41"/>
       <x:c r="G23" s="23"/>
     </x:row>
-    <x:row r="24" spans="1:27" ht="112.15" customHeight="1">
-      <x:c r="A24" s="24" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B24" s="24">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C24" s="29" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D24" s="30"/>
-      <x:c r="E24" s="27"/>
-      <x:c r="F24" s="56"/>
+    <x:row r="24" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D24" s="41"/>
       <x:c r="G24" s="23"/>
     </x:row>
-    <x:row r="25" spans="1:27" ht="37.9" customHeight="1">
-      <x:c r="A25" s="57"/>
-      <x:c r="B25" s="24"/>
-      <x:c r="C25" s="29" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D25" s="30"/>
-      <x:c r="E25" s="27"/>
-      <x:c r="F25" s="56"/>
+    <x:row r="25" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D25" s="41"/>
       <x:c r="G25" s="23"/>
     </x:row>
     <x:row r="26" spans="1:27" ht="15.75" customHeight="1">
@@ -2444,27 +2210,21 @@
     </x:row>
     <x:row r="220" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D220" s="41"/>
-      <x:c r="G220" s="23"/>
     </x:row>
     <x:row r="221" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D221" s="41"/>
-      <x:c r="G221" s="23"/>
     </x:row>
     <x:row r="222" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D222" s="41"/>
-      <x:c r="G222" s="23"/>
     </x:row>
     <x:row r="223" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D223" s="41"/>
-      <x:c r="G223" s="23"/>
     </x:row>
     <x:row r="224" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D224" s="41"/>
-      <x:c r="G224" s="23"/>
     </x:row>
     <x:row r="225" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D225" s="41"/>
-      <x:c r="G225" s="23"/>
     </x:row>
     <x:row r="226" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D226" s="41"/>
@@ -4475,24 +4235,6 @@
     </x:row>
     <x:row r="895" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D895" s="41"/>
-    </x:row>
-    <x:row r="896" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D896" s="41"/>
-    </x:row>
-    <x:row r="897" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D897" s="41"/>
-    </x:row>
-    <x:row r="898" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D898" s="41"/>
-    </x:row>
-    <x:row r="899" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D899" s="41"/>
-    </x:row>
-    <x:row r="900" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D900" s="41"/>
-    </x:row>
-    <x:row r="901" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D901" s="41"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="5">
@@ -4502,7 +4244,7 @@
     <x:mergeCell ref="B3:F3"/>
     <x:mergeCell ref="B4:F4"/>
   </x:mergeCells>
-  <x:conditionalFormatting sqref="D7:D17">
+  <x:conditionalFormatting sqref="D7:D11">
     <x:cfRule type="expression" dxfId="0" priority="1" operator="equal">
       <x:formula>H7=1</x:formula>
     </x:cfRule>

--- a/Marketing.Mvc/DadosApp/Relatorio/Relatório de Envio de Extratos de Incidência_outubro2025.xlsx
+++ b/Marketing.Mvc/DadosApp/Relatorio/Relatório de Envio de Extratos de Incidência_outubro2025.xlsx
@@ -115,13 +115,13 @@
     <x:t/>
   </x:si>
   <x:si>
+    <x:t>INQUEUE</x:t>
+  </x:si>
+  <x:si>
     <x:t>109 NORTE</x:t>
   </x:si>
   <x:si>
     <x:t>20175900000187</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SENTTOMETA</x:t>
   </x:si>
   <x:si>
     <x:t>ARCO VERDE</x:t>
@@ -1027,7 +1027,7 @@
   <x:dimension ref="A1:AA892"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <x:selection activeCell="B12" sqref="B12 B15"/>
+      <x:selection activeCell="B12" sqref="B12 B18"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="12.710625" defaultRowHeight="15" customHeight="1"/>
@@ -1174,16 +1174,16 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C8" s="35" t="s">
-        <x:v>30</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D8" s="36" t="s">
-        <x:v>31</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E8" s="37" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F8" s="37" t="s">
-        <x:v>32</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G8" s="38" t="s">
         <x:v>29</x:v>
@@ -1217,10 +1217,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C9" s="35" t="s">
-        <x:v>33</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D9" s="36" t="s">
-        <x:v>34</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E9" s="37" t="s">
         <x:v>27</x:v>
@@ -1253,13 +1253,27 @@
       <x:c r="AA9" s="39"/>
     </x:row>
     <x:row r="10" spans="1:27" ht="15" customHeight="1">
-      <x:c r="A10" s="33"/>
-      <x:c r="B10" s="34"/>
-      <x:c r="C10" s="35"/>
-      <x:c r="D10" s="36"/>
-      <x:c r="E10" s="37"/>
-      <x:c r="F10" s="37"/>
-      <x:c r="G10" s="38"/>
+      <x:c r="A10" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B10" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C10" s="35" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D10" s="36" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E10" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F10" s="37" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G10" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
       <x:c r="H10" s="39"/>
       <x:c r="I10" s="39"/>
       <x:c r="J10" s="39"/>
@@ -1281,14 +1295,28 @@
       <x:c r="Z10" s="39"/>
       <x:c r="AA10" s="39"/>
     </x:row>
-    <x:row r="11" spans="1:27">
-      <x:c r="A11" s="33"/>
-      <x:c r="B11" s="34"/>
-      <x:c r="C11" s="35"/>
-      <x:c r="D11" s="36"/>
-      <x:c r="E11" s="37"/>
-      <x:c r="F11" s="37"/>
-      <x:c r="G11" s="38"/>
+    <x:row r="11" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A11" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B11" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C11" s="35" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D11" s="36" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E11" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F11" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G11" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
       <x:c r="H11" s="39"/>
       <x:c r="I11" s="39"/>
       <x:c r="J11" s="39"/>
@@ -1310,114 +1338,203 @@
       <x:c r="Z11" s="39"/>
       <x:c r="AA11" s="39"/>
     </x:row>
-    <x:row r="12" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="A12" s="17"/>
-      <x:c r="B12" s="18"/>
-      <x:c r="C12" s="19"/>
-      <x:c r="D12" s="20"/>
-      <x:c r="E12" s="19"/>
-      <x:c r="F12" s="19"/>
-      <x:c r="G12" s="21"/>
-    </x:row>
-    <x:row r="13" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="A13" s="8"/>
-      <x:c r="B13" s="8"/>
-      <x:c r="C13" s="8"/>
-      <x:c r="D13" s="9"/>
-      <x:c r="E13" s="8"/>
-      <x:c r="F13" s="8"/>
-      <x:c r="G13" s="22"/>
-    </x:row>
-    <x:row r="14" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="A14" s="39"/>
-      <x:c r="B14" s="39"/>
-      <x:c r="C14" s="39"/>
-      <x:c r="D14" s="40"/>
-      <x:c r="E14" s="39"/>
-      <x:c r="F14" s="39"/>
-      <x:c r="G14" s="23"/>
-    </x:row>
-    <x:row r="15" spans="1:27" ht="18.75" customHeight="1">
-      <x:c r="A15" s="24" t="s">
+    <x:row r="12" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A12" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B12" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C12" s="35" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D12" s="36" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E12" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F12" s="37" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G12" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H12" s="39"/>
+      <x:c r="I12" s="39"/>
+      <x:c r="J12" s="39"/>
+      <x:c r="K12" s="39"/>
+      <x:c r="L12" s="39"/>
+      <x:c r="M12" s="39"/>
+      <x:c r="N12" s="39"/>
+      <x:c r="O12" s="39"/>
+      <x:c r="P12" s="39"/>
+      <x:c r="Q12" s="39"/>
+      <x:c r="R12" s="39"/>
+      <x:c r="S12" s="39"/>
+      <x:c r="T12" s="39"/>
+      <x:c r="U12" s="39"/>
+      <x:c r="V12" s="39"/>
+      <x:c r="W12" s="39"/>
+      <x:c r="X12" s="39"/>
+      <x:c r="Y12" s="39"/>
+      <x:c r="Z12" s="39"/>
+      <x:c r="AA12" s="39"/>
+    </x:row>
+    <x:row r="13" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A13" s="33"/>
+      <x:c r="B13" s="34"/>
+      <x:c r="C13" s="35"/>
+      <x:c r="D13" s="36"/>
+      <x:c r="E13" s="37"/>
+      <x:c r="F13" s="37"/>
+      <x:c r="G13" s="38"/>
+      <x:c r="H13" s="39"/>
+      <x:c r="I13" s="39"/>
+      <x:c r="J13" s="39"/>
+      <x:c r="K13" s="39"/>
+      <x:c r="L13" s="39"/>
+      <x:c r="M13" s="39"/>
+      <x:c r="N13" s="39"/>
+      <x:c r="O13" s="39"/>
+      <x:c r="P13" s="39"/>
+      <x:c r="Q13" s="39"/>
+      <x:c r="R13" s="39"/>
+      <x:c r="S13" s="39"/>
+      <x:c r="T13" s="39"/>
+      <x:c r="U13" s="39"/>
+      <x:c r="V13" s="39"/>
+      <x:c r="W13" s="39"/>
+      <x:c r="X13" s="39"/>
+      <x:c r="Y13" s="39"/>
+      <x:c r="Z13" s="39"/>
+      <x:c r="AA13" s="39"/>
+    </x:row>
+    <x:row r="14" spans="1:27">
+      <x:c r="A14" s="33"/>
+      <x:c r="B14" s="34"/>
+      <x:c r="C14" s="35"/>
+      <x:c r="D14" s="36"/>
+      <x:c r="E14" s="37"/>
+      <x:c r="F14" s="37"/>
+      <x:c r="G14" s="38"/>
+      <x:c r="H14" s="39"/>
+      <x:c r="I14" s="39"/>
+      <x:c r="J14" s="39"/>
+      <x:c r="K14" s="39"/>
+      <x:c r="L14" s="39"/>
+      <x:c r="M14" s="39"/>
+      <x:c r="N14" s="39"/>
+      <x:c r="O14" s="39"/>
+      <x:c r="P14" s="39"/>
+      <x:c r="Q14" s="39"/>
+      <x:c r="R14" s="39"/>
+      <x:c r="S14" s="39"/>
+      <x:c r="T14" s="39"/>
+      <x:c r="U14" s="39"/>
+      <x:c r="V14" s="39"/>
+      <x:c r="W14" s="39"/>
+      <x:c r="X14" s="39"/>
+      <x:c r="Y14" s="39"/>
+      <x:c r="Z14" s="39"/>
+      <x:c r="AA14" s="39"/>
+    </x:row>
+    <x:row r="15" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="A15" s="17"/>
+      <x:c r="B15" s="18"/>
+      <x:c r="C15" s="19"/>
+      <x:c r="D15" s="20"/>
+      <x:c r="E15" s="19"/>
+      <x:c r="F15" s="19"/>
+      <x:c r="G15" s="21"/>
+    </x:row>
+    <x:row r="16" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="A16" s="8"/>
+      <x:c r="B16" s="8"/>
+      <x:c r="C16" s="8"/>
+      <x:c r="D16" s="9"/>
+      <x:c r="E16" s="8"/>
+      <x:c r="F16" s="8"/>
+      <x:c r="G16" s="22"/>
+    </x:row>
+    <x:row r="17" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="A17" s="39"/>
+      <x:c r="B17" s="39"/>
+      <x:c r="C17" s="39"/>
+      <x:c r="D17" s="40"/>
+      <x:c r="E17" s="39"/>
+      <x:c r="F17" s="39"/>
+      <x:c r="G17" s="23"/>
+    </x:row>
+    <x:row r="18" spans="1:27" ht="18.75" customHeight="1">
+      <x:c r="A18" s="24" t="s">
         <x:v>14</x:v>
-      </x:c>
-      <x:c r="B15" s="24">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C15" s="25" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D15" s="26"/>
-      <x:c r="E15" s="27"/>
-      <x:c r="F15" s="56"/>
-      <x:c r="G15" s="23"/>
-    </x:row>
-    <x:row r="16" spans="1:27" ht="18.75" customHeight="1">
-      <x:c r="A16" s="24" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B16" s="24">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C16" s="25" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D16" s="28"/>
-      <x:c r="E16" s="27"/>
-      <x:c r="F16" s="56"/>
-      <x:c r="G16" s="23"/>
-    </x:row>
-    <x:row r="17" spans="1:27" ht="18.75" customHeight="1">
-      <x:c r="A17" s="24" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B17" s="24">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C17" s="29" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D17" s="30"/>
-      <x:c r="E17" s="27"/>
-      <x:c r="F17" s="56"/>
-      <x:c r="G17" s="23"/>
-    </x:row>
-    <x:row r="18" spans="1:27" ht="112.15" customHeight="1">
-      <x:c r="A18" s="24" t="s">
-        <x:v>20</x:v>
       </x:c>
       <x:c r="B18" s="24">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C18" s="29" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D18" s="30"/>
+      <x:c r="C18" s="25" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D18" s="26"/>
       <x:c r="E18" s="27"/>
       <x:c r="F18" s="56"/>
       <x:c r="G18" s="23"/>
     </x:row>
-    <x:row r="19" spans="1:27" ht="37.9" customHeight="1">
-      <x:c r="A19" s="57"/>
-      <x:c r="B19" s="24"/>
-      <x:c r="C19" s="29" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D19" s="30"/>
+    <x:row r="19" spans="1:27" ht="18.75" customHeight="1">
+      <x:c r="A19" s="24" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B19" s="24">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C19" s="25" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D19" s="28"/>
       <x:c r="E19" s="27"/>
       <x:c r="F19" s="56"/>
       <x:c r="G19" s="23"/>
     </x:row>
-    <x:row r="20" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D20" s="41"/>
+    <x:row r="20" spans="1:27" ht="18.75" customHeight="1">
+      <x:c r="A20" s="24" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B20" s="24">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C20" s="29" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D20" s="30"/>
+      <x:c r="E20" s="27"/>
+      <x:c r="F20" s="56"/>
       <x:c r="G20" s="23"/>
     </x:row>
-    <x:row r="21" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D21" s="41"/>
+    <x:row r="21" spans="1:27" ht="112.15" customHeight="1">
+      <x:c r="A21" s="24" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B21" s="24">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C21" s="29" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D21" s="30"/>
+      <x:c r="E21" s="27"/>
+      <x:c r="F21" s="56"/>
       <x:c r="G21" s="23"/>
     </x:row>
-    <x:row r="22" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D22" s="41"/>
+    <x:row r="22" spans="1:27" ht="37.9" customHeight="1">
+      <x:c r="A22" s="57"/>
+      <x:c r="B22" s="24"/>
+      <x:c r="C22" s="29" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D22" s="30"/>
+      <x:c r="E22" s="27"/>
+      <x:c r="F22" s="56"/>
       <x:c r="G22" s="23"/>
     </x:row>
     <x:row r="23" spans="1:27" ht="15.75" customHeight="1">
@@ -2210,12 +2327,15 @@
     </x:row>
     <x:row r="220" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D220" s="41"/>
+      <x:c r="G220" s="23"/>
     </x:row>
     <x:row r="221" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D221" s="41"/>
+      <x:c r="G221" s="23"/>
     </x:row>
     <x:row r="222" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D222" s="41"/>
+      <x:c r="G222" s="23"/>
     </x:row>
     <x:row r="223" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D223" s="41"/>
@@ -4235,6 +4355,15 @@
     </x:row>
     <x:row r="895" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D895" s="41"/>
+    </x:row>
+    <x:row r="896" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D896" s="41"/>
+    </x:row>
+    <x:row r="897" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D897" s="41"/>
+    </x:row>
+    <x:row r="898" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D898" s="41"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="5">
@@ -4244,7 +4373,7 @@
     <x:mergeCell ref="B3:F3"/>
     <x:mergeCell ref="B4:F4"/>
   </x:mergeCells>
-  <x:conditionalFormatting sqref="D7:D11">
+  <x:conditionalFormatting sqref="D7:D14">
     <x:cfRule type="expression" dxfId="0" priority="1" operator="equal">
       <x:formula>H7=1</x:formula>
     </x:cfRule>
